--- a/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
+++ b/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/examples/rules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/rules/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0B5E7-718C-FC4B-AC64-BF1301A18AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA1FDC-371A-8943-87F7-DB5FACAF8125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="5540" windowWidth="33440" windowHeight="21320" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
+    <workbookView xWindow="27220" yWindow="4500" windowWidth="28300" windowHeight="21920" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="122">
   <si>
     <t>Class</t>
   </si>
@@ -170,34 +170,16 @@
     <t>version</t>
   </si>
   <si>
-    <t>isCurrentVersion</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>abstract</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
-    <t>contributor</t>
-  </si>
-  <si>
     <t>rights</t>
-  </si>
-  <si>
-    <t>dataSetId</t>
-  </si>
-  <si>
-    <t>externalIdPrefix</t>
   </si>
   <si>
     <t>0.1</t>
@@ -440,9 +422,6 @@
     <t>A virtual connection of two price areas</t>
   </si>
   <si>
-    <t>2626756768281823</t>
-  </si>
-  <si>
     <t>Nordics.Norway</t>
   </si>
   <si>
@@ -510,9 +489,6 @@
   </si>
   <si>
     <t>Can be freely distributed and used</t>
-  </si>
-  <si>
-    <t>playground_</t>
   </si>
   <si>
     <t>Definition of Classes to CDF mapping</t>
@@ -592,14 +568,17 @@
   <si>
     <t>prefix</t>
   </si>
+  <si>
+    <t>sufix</t>
+  </si>
+  <si>
+    <t>playground_model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1089,17 +1068,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1469,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9981C4E-8ECE-C24F-A097-73341D4CF7FB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1483,102 +1456,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="B6" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="33"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>101</v>
+      <c r="B8" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +1542,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>41</v>
@@ -1616,39 +1553,39 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="str">
+      <c r="A5" s="51" t="str">
         <f>Metadata!B$2</f>
         <v>neat</v>
       </c>
@@ -1657,7 +1594,7 @@
         <v>http://purl.org/cognite/neat#</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1693,15 +1630,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="A1" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1768,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="29" t="s">
@@ -1809,23 +1746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="58"/>
+      <c r="A1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1855,147 +1792,147 @@
       <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>74</v>
+      <c r="J2" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="48">
         <v>1</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="52" t="str">
+      <c r="I3" s="48"/>
+      <c r="J3" s="50" t="str">
         <f t="shared" ref="J3:J11" si="0">IF(ISBLANK(B3), "", "rdfpath")</f>
         <v>rdfpath</v>
       </c>
-      <c r="K3" s="49" t="str">
+      <c r="K3" s="47" t="str">
         <f>IF(ISBLANK(B3), "", Metadata!B$2 &amp; ":" &amp;A3&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B3&amp;")")</f>
         <v>neat:CountryGroup(neat:name)</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="44">
         <v>1</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="48" t="str">
+      <c r="I4" s="44"/>
+      <c r="J4" s="46" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K4" s="45" t="str">
+      <c r="K4" s="43" t="str">
         <f>IF(ISBLANK(B4), "", Metadata!B$2 &amp; ":" &amp;A4&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B4&amp;")")</f>
         <v>neat:Country(neat:name)</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>1</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="48" t="str">
+      <c r="I5" s="44"/>
+      <c r="J5" s="46" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K5" s="45" t="str">
+      <c r="K5" s="43" t="str">
         <f>IF(ISBLANK(B5), "", Metadata!B$2 &amp; ":" &amp;A5&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B5&amp;")")</f>
         <v>neat:Country(neat:countryGroup)</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>1</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="48" t="str">
+      <c r="I6" s="44"/>
+      <c r="J6" s="46" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="43" t="str">
         <f>IF(ISBLANK(B6), "", Metadata!B$2 &amp; ":" &amp;A6&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B6&amp;")")</f>
         <v>neat:Country(neat:TSO)</v>
       </c>
@@ -2026,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="44" t="str">
+      <c r="J7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2043,7 +1980,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -2061,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="44" t="str">
+      <c r="J8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2075,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2092,7 +2029,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="44" t="str">
+      <c r="J9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2102,69 +2039,69 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="38">
         <v>1</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <v>1</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="43" t="str">
+      <c r="I10" s="39"/>
+      <c r="J10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K10" s="40" t="str">
+      <c r="K10" s="38" t="str">
         <f>IF(ISBLANK(B10), "", Metadata!B$2 &amp; ":" &amp;A10&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B10&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:name)</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <v>2</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="43" t="str">
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K11" s="40" t="str">
+      <c r="K11" s="38" t="str">
         <f>IF(ISBLANK(B11), "", Metadata!B$2 &amp; ":" &amp;A11&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B11&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:priceArea)</v>
       </c>
@@ -12075,11 +12012,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -12100,7 +12037,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12116,18 +12053,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>17</v>
@@ -12138,21 +12075,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>28</v>
@@ -12160,18 +12097,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -12182,62 +12119,62 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>17</v>
@@ -12248,51 +12185,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -12303,62 +12240,62 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>17</v>
@@ -12369,40 +12306,40 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>17</v>
@@ -12413,310 +12350,310 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -12728,26 +12665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52b81742-33c2-40cc-b790-7e45219c7334">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100579BE8B05CE7034EB45A78AA68378F2E" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="3e5fff67086aedf62c65cb7b025de975">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52b81742-33c2-40cc-b790-7e45219c7334" xmlns:ns3="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9250e7a2aff0c3bef49f240901aeee7" ns2:_="" ns3:_="">
     <xsd:import namespace="52b81742-33c2-40cc-b790-7e45219c7334"/>
@@ -12970,10 +12887,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52b81742-33c2-40cc-b790-7e45219c7334">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58FD28A-F2DD-4C04-BF54-9689FD79BAB6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{502A94D1-4307-442E-AABE-D52193DC6B44}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52b81742-33c2-40cc-b790-7e45219c7334"/>
+    <ds:schemaRef ds:uri="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12996,20 +12944,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{502A94D1-4307-442E-AABE-D52193DC6B44}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58FD28A-F2DD-4C04-BF54-9689FD79BAB6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52b81742-33c2-40cc-b790-7e45219c7334"/>
-    <ds:schemaRef ds:uri="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
+++ b/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/rules/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA1FDC-371A-8943-87F7-DB5FACAF8125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD923A-EF2F-E849-8758-8F6E682F528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27220" yWindow="4500" windowWidth="28300" windowHeight="21920" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
+    <workbookView xWindow="33880" yWindow="3840" windowWidth="28300" windowHeight="21920" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
   <si>
     <t>Class</t>
   </si>
@@ -170,16 +170,10 @@
     <t>version</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>creator</t>
-  </si>
-  <si>
-    <t>rights</t>
   </si>
   <si>
     <t>0.1</t>
@@ -488,9 +482,6 @@
     <t>Nikola Vasiljevic</t>
   </si>
   <si>
-    <t>Can be freely distributed and used</t>
-  </si>
-  <si>
     <t>Definition of Classes to CDF mapping</t>
   </si>
   <si>
@@ -566,13 +557,13 @@
     <t>http://purl.org/cognite/neat#</t>
   </si>
   <si>
-    <t>prefix</t>
+    <t>playground_model</t>
   </si>
   <si>
-    <t>sufix</t>
+    <t>space</t>
   </si>
   <si>
-    <t>playground_model</t>
+    <t>external_id</t>
   </si>
 </sst>
 </file>
@@ -769,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -925,34 +916,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="double">
@@ -1014,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1060,47 +1023,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1126,6 +1075,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1442,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9981C4E-8ECE-C24F-A097-73341D4CF7FB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="317" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1455,67 +1419,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1498,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>41</v>
@@ -1553,39 +1509,39 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="45" t="str">
         <f>Metadata!B$2</f>
         <v>neat</v>
       </c>
@@ -1594,7 +1550,7 @@
         <v>http://purl.org/cognite/neat#</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1630,15 +1586,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1705,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="29" t="s">
@@ -1746,23 +1702,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1792,147 +1748,147 @@
       <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>68</v>
+      <c r="J2" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="50" t="str">
+      <c r="I3" s="42"/>
+      <c r="J3" s="44" t="str">
         <f t="shared" ref="J3:J11" si="0">IF(ISBLANK(B3), "", "rdfpath")</f>
         <v>rdfpath</v>
       </c>
-      <c r="K3" s="47" t="str">
+      <c r="K3" s="41" t="str">
         <f>IF(ISBLANK(B3), "", Metadata!B$2 &amp; ":" &amp;A3&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B3&amp;")")</f>
         <v>neat:CountryGroup(neat:name)</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="46" t="str">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K4" s="43" t="str">
+      <c r="K4" s="37" t="str">
         <f>IF(ISBLANK(B4), "", Metadata!B$2 &amp; ":" &amp;A4&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B4&amp;")")</f>
         <v>neat:Country(neat:name)</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="46" t="str">
+      <c r="I5" s="38"/>
+      <c r="J5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K5" s="43" t="str">
+      <c r="K5" s="37" t="str">
         <f>IF(ISBLANK(B5), "", Metadata!B$2 &amp; ":" &amp;A5&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B5&amp;")")</f>
         <v>neat:Country(neat:countryGroup)</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="46" t="str">
+      <c r="I6" s="38"/>
+      <c r="J6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K6" s="43" t="str">
+      <c r="K6" s="37" t="str">
         <f>IF(ISBLANK(B6), "", Metadata!B$2 &amp; ":" &amp;A6&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B6&amp;")")</f>
         <v>neat:Country(neat:TSO)</v>
       </c>
@@ -1963,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="42" t="str">
+      <c r="J7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -1980,7 +1936,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -1998,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="42" t="str">
+      <c r="J8" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2012,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2029,7 +1985,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="42" t="str">
+      <c r="J9" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2039,69 +1995,69 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="33">
         <v>1</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="41" t="str">
+      <c r="I10" s="33"/>
+      <c r="J10" s="35" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="32" t="str">
         <f>IF(ISBLANK(B10), "", Metadata!B$2 &amp; ":" &amp;A10&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B10&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:name)</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>2</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="33">
         <v>2</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41" t="str">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="35" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="32" t="str">
         <f>IF(ISBLANK(B11), "", Metadata!B$2 &amp; ":" &amp;A11&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B11&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:priceArea)</v>
       </c>
@@ -12012,11 +11968,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="A1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -12037,7 +11993,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12053,18 +12009,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>17</v>
@@ -12075,21 +12031,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>28</v>
@@ -12097,18 +12053,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -12119,62 +12075,62 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>17</v>
@@ -12185,51 +12141,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -12240,62 +12196,62 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>17</v>
@@ -12306,40 +12262,40 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>17</v>
@@ -12350,310 +12306,310 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
+++ b/cognite/neat/rules/examples/sheet2cdf-transformation-rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/examples/rules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary/repos/neat/cognite/neat/rules/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0B5E7-718C-FC4B-AC64-BF1301A18AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD923A-EF2F-E849-8758-8F6E682F528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="5540" windowWidth="33440" windowHeight="21320" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
+    <workbookView xWindow="33880" yWindow="3840" windowWidth="28300" windowHeight="21920" xr2:uid="{DC5DAD83-861A-3547-A43E-AF26CFD744F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
   <si>
     <t>Class</t>
   </si>
@@ -170,34 +170,10 @@
     <t>version</t>
   </si>
   <si>
-    <t>isCurrentVersion</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>abstract</t>
-  </si>
-  <si>
     <t>creator</t>
-  </si>
-  <si>
-    <t>contributor</t>
-  </si>
-  <si>
-    <t>rights</t>
-  </si>
-  <si>
-    <t>dataSetId</t>
-  </si>
-  <si>
-    <t>externalIdPrefix</t>
   </si>
   <si>
     <t>0.1</t>
@@ -440,9 +416,6 @@
     <t>A virtual connection of two price areas</t>
   </si>
   <si>
-    <t>2626756768281823</t>
-  </si>
-  <si>
     <t>Nordics.Norway</t>
   </si>
   <si>
@@ -507,12 +480,6 @@
   </si>
   <si>
     <t>Nikola Vasiljevic</t>
-  </si>
-  <si>
-    <t>Can be freely distributed and used</t>
-  </si>
-  <si>
-    <t>playground_</t>
   </si>
   <si>
     <t>Definition of Classes to CDF mapping</t>
@@ -590,16 +557,19 @@
     <t>http://purl.org/cognite/neat#</t>
   </si>
   <si>
-    <t>prefix</t>
+    <t>playground_model</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -790,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -946,34 +916,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="double">
@@ -1035,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1081,53 +1023,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1153,6 +1075,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9981C4E-8ECE-C24F-A097-73341D4CF7FB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="317" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1482,103 +1419,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+      <c r="A1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>96</v>
+      <c r="A2" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="B6" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="33"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>101</v>
+      <c r="B7" s="62" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +1498,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>41</v>
@@ -1616,39 +1509,39 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="str">
+      <c r="A5" s="45" t="str">
         <f>Metadata!B$2</f>
         <v>neat</v>
       </c>
@@ -1657,7 +1550,7 @@
         <v>http://purl.org/cognite/neat#</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1693,15 +1586,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="A1" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1768,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="29" t="s">
@@ -1809,23 +1702,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="58"/>
+      <c r="A1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1855,147 +1748,147 @@
       <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>74</v>
+      <c r="J2" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="52" t="str">
+      <c r="I3" s="42"/>
+      <c r="J3" s="44" t="str">
         <f t="shared" ref="J3:J11" si="0">IF(ISBLANK(B3), "", "rdfpath")</f>
         <v>rdfpath</v>
       </c>
-      <c r="K3" s="49" t="str">
+      <c r="K3" s="41" t="str">
         <f>IF(ISBLANK(B3), "", Metadata!B$2 &amp; ":" &amp;A3&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B3&amp;")")</f>
         <v>neat:CountryGroup(neat:name)</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="48" t="str">
+      <c r="I4" s="38"/>
+      <c r="J4" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K4" s="45" t="str">
+      <c r="K4" s="37" t="str">
         <f>IF(ISBLANK(B4), "", Metadata!B$2 &amp; ":" &amp;A4&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B4&amp;")")</f>
         <v>neat:Country(neat:name)</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="48" t="str">
+      <c r="I5" s="38"/>
+      <c r="J5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K5" s="45" t="str">
+      <c r="K5" s="37" t="str">
         <f>IF(ISBLANK(B5), "", Metadata!B$2 &amp; ":" &amp;A5&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B5&amp;")")</f>
         <v>neat:Country(neat:countryGroup)</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="48" t="str">
+      <c r="I6" s="38"/>
+      <c r="J6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="37" t="str">
         <f>IF(ISBLANK(B6), "", Metadata!B$2 &amp; ":" &amp;A6&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B6&amp;")")</f>
         <v>neat:Country(neat:TSO)</v>
       </c>
@@ -2026,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="44" t="str">
+      <c r="J7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2043,7 +1936,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -2061,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="44" t="str">
+      <c r="J8" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2075,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2092,7 +1985,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="44" t="str">
+      <c r="J9" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
@@ -2102,69 +1995,69 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="33">
         <v>1</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="43" t="str">
+      <c r="I10" s="33"/>
+      <c r="J10" s="35" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K10" s="40" t="str">
+      <c r="K10" s="32" t="str">
         <f>IF(ISBLANK(B10), "", Metadata!B$2 &amp; ":" &amp;A10&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B10&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:name)</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="32">
         <v>2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="33">
         <v>2</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="43" t="str">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="35" t="str">
         <f t="shared" si="0"/>
         <v>rdfpath</v>
       </c>
-      <c r="K11" s="40" t="str">
+      <c r="K11" s="32" t="str">
         <f>IF(ISBLANK(B11), "", Metadata!B$2 &amp; ":" &amp;A11&amp;"("&amp;Metadata!B$2 &amp; ":" &amp;B11&amp;")")</f>
         <v>neat:PriceAreaConnection(neat:priceArea)</v>
       </c>
@@ -12075,11 +11968,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -12100,7 +11993,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12116,18 +12009,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>17</v>
@@ -12138,21 +12031,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>28</v>
@@ -12160,18 +12053,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -12182,62 +12075,62 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>17</v>
@@ -12248,51 +12141,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -12303,62 +12196,62 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>17</v>
@@ -12369,40 +12262,40 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>17</v>
@@ -12413,310 +12306,310 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -12728,26 +12621,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52b81742-33c2-40cc-b790-7e45219c7334">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100579BE8B05CE7034EB45A78AA68378F2E" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="3e5fff67086aedf62c65cb7b025de975">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52b81742-33c2-40cc-b790-7e45219c7334" xmlns:ns3="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9250e7a2aff0c3bef49f240901aeee7" ns2:_="" ns3:_="">
     <xsd:import namespace="52b81742-33c2-40cc-b790-7e45219c7334"/>
@@ -12970,10 +12843,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52b81742-33c2-40cc-b790-7e45219c7334">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58FD28A-F2DD-4C04-BF54-9689FD79BAB6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{502A94D1-4307-442E-AABE-D52193DC6B44}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52b81742-33c2-40cc-b790-7e45219c7334"/>
+    <ds:schemaRef ds:uri="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12996,20 +12900,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{502A94D1-4307-442E-AABE-D52193DC6B44}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58FD28A-F2DD-4C04-BF54-9689FD79BAB6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52b81742-33c2-40cc-b790-7e45219c7334"/>
-    <ds:schemaRef ds:uri="f0bd56e2-4aae-4be1-b2c1-2cc2e5553e4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>